--- a/target/test-classes/Utilities/Input.xlsx
+++ b/target/test-classes/Utilities/Input.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="38">
   <si>
     <t>Bookshelf under 15000</t>
   </si>
@@ -630,27 +630,27 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
